--- a/Libraries/Vehicle/Linkage/Subframe_Conn/sm_car_data_Subframe_Conn_ARB_Ax3.xlsx
+++ b/Libraries/Vehicle/Linkage/Subframe_Conn/sm_car_data_Subframe_Conn_ARB_Ax3.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Subframe_Conn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A87E3F-5459-41AD-BD04-1A4DE16EB65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D615C0D4-B943-4CAB-B30D-F7299656CEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="988" xr2:uid="{5C9B011B-FECB-46A4-81D1-C980D278E613}"/>
+    <workbookView xWindow="6885" yWindow="1575" windowWidth="21600" windowHeight="11235" tabRatio="988" activeTab="4" xr2:uid="{5C9B011B-FECB-46A4-81D1-C980D278E613}"/>
   </bookViews>
   <sheets>
     <sheet name="BuARB_Sedan_f" sheetId="51" r:id="rId1"/>
     <sheet name="BuARB_Sedan_r" sheetId="53" r:id="rId2"/>
     <sheet name="BuARB_SedanLG_f" sheetId="54" r:id="rId3"/>
     <sheet name="BuARB_SedanLG_r" sheetId="55" r:id="rId4"/>
-    <sheet name="BuARB_Ach_f" sheetId="50" r:id="rId5"/>
-    <sheet name="BuARB_Makhulu_f" sheetId="52" r:id="rId6"/>
-    <sheet name="BuARB_SedanLGAU_f" sheetId="49" r:id="rId7"/>
+    <sheet name="BuARB_SedanLG_mac_f" sheetId="57" r:id="rId5"/>
+    <sheet name="BuARB_Ach_f" sheetId="50" r:id="rId6"/>
+    <sheet name="BuARB_Makhulu_f" sheetId="52" r:id="rId7"/>
+    <sheet name="BuARB_SedanLGAU_f" sheetId="49" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="44">
   <si>
     <t>Units</t>
   </si>
@@ -167,13 +168,13 @@
     <t>AntiRollBar.Droplink_Sedan_Hamba_f.sInboard</t>
   </si>
   <si>
-    <t>AntiRollBar.Droplink_Sedan_HambaLG_f.sInboard</t>
-  </si>
-  <si>
     <t>AntiRollBar.Droplink_Sedan_HambaLG_r.sInboard</t>
   </si>
   <si>
     <t>BushARB_Ax3_SedanLG_r</t>
+  </si>
+  <si>
+    <t>BushARB_Ax3_SedanLG_mac_f</t>
   </si>
 </sst>
 </file>
@@ -301,7 +302,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{59B68FC0-DF65-45B7-9161-1BA244C01964}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -686,7 +694,7 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q31" sqref="Q31"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
@@ -1637,7 +1645,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2603,7 +2611,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2623,7 +2631,7 @@
       <selection activeCell="Q31" sqref="Q31"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
       <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2707,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2717,7 +2725,7 @@
       </c>
       <c r="G5" s="20">
         <f>K5+0.01</f>
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="H5" s="20">
         <f>L5</f>
@@ -2727,7 +2735,7 @@
         <v>-0.3</v>
       </c>
       <c r="K5" s="21">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="21">
         <v>0.15</v>
@@ -2748,7 +2756,7 @@
       </c>
       <c r="G6" s="20">
         <f>K5</f>
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
       <c r="H6" s="20">
         <f>L5</f>
@@ -3569,7 +3577,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3590,7 +3598,7 @@
       <selection activeCell="Q31" sqref="Q31"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
       <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,10 +3671,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3684,7 +3692,7 @@
       </c>
       <c r="G5" s="20">
         <f>K5+0.01</f>
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="H5" s="20">
         <f>L5</f>
@@ -3694,7 +3702,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" s="21">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="21">
         <v>0.15</v>
@@ -3715,7 +3723,7 @@
       </c>
       <c r="G6" s="20">
         <f>K5</f>
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
       <c r="H6" s="20">
         <f>L5</f>
@@ -4536,7 +4544,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4546,6 +4554,973 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A955DFB-40D3-4F17-840D-0939E8FF2820}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="Q31" sqref="Q31"/>
+      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="7.140625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="20">
+        <f>J5</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5" s="20">
+        <f>K5+0.01</f>
+        <v>0.26</v>
+      </c>
+      <c r="H5" s="20">
+        <f>L5</f>
+        <v>0.24</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20">
+        <f>J5+0.01</f>
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="20">
+        <f>K5</f>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="20">
+        <f>L5</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13">
+        <v>-4</v>
+      </c>
+      <c r="I9" s="14">
+        <v>-3</v>
+      </c>
+      <c r="J9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="N9" s="13">
+        <v>2</v>
+      </c>
+      <c r="O9" s="13">
+        <v>3</v>
+      </c>
+      <c r="P9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13">
+        <f>-4*P33</f>
+        <v>-4000</v>
+      </c>
+      <c r="I10" s="14">
+        <f>-2.75*P33</f>
+        <v>-2750</v>
+      </c>
+      <c r="J10" s="14">
+        <f>-1.5*P33</f>
+        <v>-1500</v>
+      </c>
+      <c r="K10" s="14">
+        <f>-0.5*P33</f>
+        <v>-500</v>
+      </c>
+      <c r="L10" s="14">
+        <f>0*P33</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <f>0.5*P33</f>
+        <v>500</v>
+      </c>
+      <c r="N10" s="13">
+        <f>1.5*P33</f>
+        <v>1500</v>
+      </c>
+      <c r="O10" s="13">
+        <f>2.75*P33</f>
+        <v>2750</v>
+      </c>
+      <c r="P10" s="14">
+        <f>4*P33</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="13">
+        <v>-4</v>
+      </c>
+      <c r="I13" s="14">
+        <v>-3</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="13">
+        <v>2</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3</v>
+      </c>
+      <c r="P13" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="13">
+        <f>-4*P37</f>
+        <v>-4000</v>
+      </c>
+      <c r="I14" s="14">
+        <f>-2.75*P37</f>
+        <v>-2750</v>
+      </c>
+      <c r="J14" s="14">
+        <f>-1.5*P37</f>
+        <v>-1500</v>
+      </c>
+      <c r="K14" s="14">
+        <f>-0.5*P37</f>
+        <v>-500</v>
+      </c>
+      <c r="L14" s="14">
+        <f>0*P37</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <f>0.5*P37</f>
+        <v>500</v>
+      </c>
+      <c r="N14" s="13">
+        <f>1.5*P37</f>
+        <v>1500</v>
+      </c>
+      <c r="O14" s="13">
+        <f>2.75*P37</f>
+        <v>2750</v>
+      </c>
+      <c r="P14" s="14">
+        <f>4*P37</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="13">
+        <v>-4</v>
+      </c>
+      <c r="I17" s="14">
+        <v>-3</v>
+      </c>
+      <c r="J17" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1</v>
+      </c>
+      <c r="N17" s="13">
+        <v>2</v>
+      </c>
+      <c r="O17" s="13">
+        <v>3</v>
+      </c>
+      <c r="P17" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="13">
+        <f>-4*P41</f>
+        <v>-4000</v>
+      </c>
+      <c r="I18" s="14">
+        <f>-2.75*P41</f>
+        <v>-2750</v>
+      </c>
+      <c r="J18" s="14">
+        <f>-1.5*P41</f>
+        <v>-1500</v>
+      </c>
+      <c r="K18" s="14">
+        <f>-0.5*P41</f>
+        <v>-500</v>
+      </c>
+      <c r="L18" s="14">
+        <f>0*P41</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <f>0.5*P41</f>
+        <v>500</v>
+      </c>
+      <c r="N18" s="13">
+        <f>1.5*P41</f>
+        <v>1500</v>
+      </c>
+      <c r="O18" s="13">
+        <f>2.75*P41</f>
+        <v>2750</v>
+      </c>
+      <c r="P18" s="14">
+        <f>4*P41</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="13">
+        <v>-4</v>
+      </c>
+      <c r="I21" s="14">
+        <v>-3</v>
+      </c>
+      <c r="J21" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <v>1</v>
+      </c>
+      <c r="N21" s="13">
+        <v>2</v>
+      </c>
+      <c r="O21" s="13">
+        <v>3</v>
+      </c>
+      <c r="P21" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="13">
+        <f>-4*P45</f>
+        <v>-4000</v>
+      </c>
+      <c r="I22" s="14">
+        <f>-2.75*P45</f>
+        <v>-2750</v>
+      </c>
+      <c r="J22" s="14">
+        <f>-1.5*P45</f>
+        <v>-1500</v>
+      </c>
+      <c r="K22" s="14">
+        <f>-0.5*P45</f>
+        <v>-500</v>
+      </c>
+      <c r="L22" s="14">
+        <f>0*P45</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <f>0.5*P45</f>
+        <v>500</v>
+      </c>
+      <c r="N22" s="13">
+        <f>1.5*P45</f>
+        <v>1500</v>
+      </c>
+      <c r="O22" s="13">
+        <f>2.75*P45</f>
+        <v>2750</v>
+      </c>
+      <c r="P22" s="14">
+        <f>4*P45</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="13">
+        <v>-4</v>
+      </c>
+      <c r="I25" s="14">
+        <v>-3</v>
+      </c>
+      <c r="J25" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>1</v>
+      </c>
+      <c r="N25" s="13">
+        <v>2</v>
+      </c>
+      <c r="O25" s="13">
+        <v>3</v>
+      </c>
+      <c r="P25" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="13">
+        <f>-4*P49</f>
+        <v>-4000</v>
+      </c>
+      <c r="I26" s="14">
+        <f>-2.75*P49</f>
+        <v>-2750</v>
+      </c>
+      <c r="J26" s="14">
+        <f>-1.5*P49</f>
+        <v>-1500</v>
+      </c>
+      <c r="K26" s="14">
+        <f>-0.5*P49</f>
+        <v>-500</v>
+      </c>
+      <c r="L26" s="14">
+        <f>0*P49</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <f>0.5*P49</f>
+        <v>500</v>
+      </c>
+      <c r="N26" s="13">
+        <f>1.5*P49</f>
+        <v>1500</v>
+      </c>
+      <c r="O26" s="13">
+        <f>2.75*P49</f>
+        <v>2750</v>
+      </c>
+      <c r="P26" s="14">
+        <f>4*P49</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13">
+        <v>-4</v>
+      </c>
+      <c r="I29" s="14">
+        <v>-3</v>
+      </c>
+      <c r="J29" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1</v>
+      </c>
+      <c r="N29" s="13">
+        <v>2</v>
+      </c>
+      <c r="O29" s="13">
+        <v>3</v>
+      </c>
+      <c r="P29" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13">
+        <f>-4*P53</f>
+        <v>-4000</v>
+      </c>
+      <c r="I30" s="14">
+        <f>-2.75*P53</f>
+        <v>-2750</v>
+      </c>
+      <c r="J30" s="14">
+        <f>-1.5*P53</f>
+        <v>-1500</v>
+      </c>
+      <c r="K30" s="14">
+        <f>-0.5*P53</f>
+        <v>-500</v>
+      </c>
+      <c r="L30" s="14">
+        <f>0*P53</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <f>0.5*P53</f>
+        <v>500</v>
+      </c>
+      <c r="N30" s="13">
+        <f>1.5*P53</f>
+        <v>1500</v>
+      </c>
+      <c r="O30" s="13">
+        <f>2.75*P53</f>
+        <v>2750</v>
+      </c>
+      <c r="P30" s="14">
+        <f>4*P53</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29D03D6-40B0-415E-B627-DF490261618F}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -4557,7 +5532,7 @@
       <selection activeCell="Q31" sqref="Q31"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
       <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5503,7 +6478,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5511,7 +6486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0037D60-DC48-488C-B42C-C0517DA24E79}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6469,7 +7444,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6477,7 +7452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA11442B-53F2-40F2-B971-858F8B07A0C8}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6489,7 +7464,7 @@
       <selection activeCell="P28" sqref="P28:P34"/>
       <selection pane="topRight" activeCell="P28" sqref="P28:P34"/>
       <selection pane="bottomLeft" activeCell="P28" sqref="P28:P34"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7434,7 +8409,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:C10 B12:C30 A21 A29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
